--- a/wetlands/src/VIBI-woody/HTLN_CUVA_VIBIFieldDataform_072123corr.xlsx
+++ b/wetlands/src/VIBI-woody/HTLN_CUVA_VIBIFieldDataform_072123corr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GRowell\HTLN-Data-Capture-Scripts\wetlands\src\VIBI-woody\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GRowell\HTLN-data-capture\wetlands\src\VIBI-woody\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6BB1AA-17C1-4447-A88A-2DF2B5E45E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A688F1-C40A-43BE-A696-D7BBFA48945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46322,16 +46322,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.81640625" customWidth="1"/>
     <col min="12" max="12" width="15.54296875" customWidth="1"/>
